--- a/biology/Zoologie/Frère_des_ours/Frère_des_ours.xlsx
+++ b/biology/Zoologie/Frère_des_ours/Frère_des_ours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_des_ours</t>
+          <t>Frère_des_ours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frère des ours (Brother Bear) — ou Mon frère l'ours au Québec — est le 84e film d'animation et le 44e « Classique d'animation » des studios Disney, sorti en 2003 et réalisé par Robert Walker (en) et Aaron Blaise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_des_ours</t>
+          <t>Frère_des_ours</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kenaï est un jeune homme turbulent. Désinvolte et aventurier, il attend impatiemment le jour de la cérémonie de la maturité où la chamane de son village lui remettra son totem, symbole d'une vertu qu'il devra accomplir et suivre toute sa vie. Mais alors qu'il l'imagine représenter un animal puissant, symbole de force ou de sagesse comme ses frères aînés Sitka et Denahi, il reçoit « l'ours de l'amour ».
 Furieux de la moquerie de son frère aîné et des reproches quant au vol par un ours de la pêche qui devait servir au banquet et que la désinvolture de Kenaï avait favorisé, ce dernier décide de se lancer à la poursuite du grizzli dans la forêt. Il finit par retrouver et affronter l'animal au sommet d'un pic rocheux, mais présumant de ses forces, il est rapidement mis en difficulté. Ses deux frères interviennent alors pour éloigner le danger mais l'ours est beaucoup trop fort pour eux : il fait déséquilibrer Denahi qui glisse dans une crevasse et assomme Sitka d'un coup de patte. Décidé à l'achever, l'ours remarque que Kenaï et Denahi sont eux aussi en position vulnérable et se retourne contre eux. Afin de sauver ses frères, Sitka plante alors sa lance dans une fente du glacier, ce qui a pour effet de provoquer une gigantesque fissure dans la roche. Un énorme morceau de roche et de glace se détache alors de la falaise, entraînant Sitka et l'ours dans une chute qui est malheureusement fatale au jeune homme, alors que l'ours s'en sort sain et sauf. Seul un morceau de lance et le manteau de Sitka sont retrouvés flottant dans la rivière en contrebas au pied de la falaise. Le soir, après les funérailles de son frère, désespéré et fou de rage, Kenaï traque l'ours et finit par le tuer au sommet d'une aiguille rocheuse. C'est alors que des esprits apparaissent, dont notamment l'esprit de Sitka et le métamorphosent en ours. Denahi, qui s'était entretemps lancé à la poursuite de Kenaï arrive juste à ce moment-là. Apercevant un énorme ours au sommet du pic rocheux et les haillons de Kenaï éparpillés sur la roche, il pense à tort que l'ours qui se tient devant lui a tué Kenaï. Il se lance alors à la poursuite de l'ours, sans savoir qu'il s'agit en réalité de son propre frère.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_des_ours</t>
+          <t>Frère_des_ours</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Brother Bear
 Titre français : Frère des ours
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_des_ours</t>
+          <t>Frère_des_ours</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,8 +610,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Voix originales
-Joaquin Phoenix : Kenai
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Joaquin Phoenix : Kenai
 D. B. Sweeney : Sitka
 Jason Raize : Denahi
 Jeremy Suarez : Koda
@@ -612,8 +633,43 @@
 Pat Fry : Moose
 Corey Burton : Old Man Bear
 U Aung Ko : Bear
-Kath Soucie, Howard McGillin, Rodger Bumpass, Patrick Pinney et Jack Angel : voix additionnelles
-Voix françaises
+Kath Soucie, Howard McGillin, Rodger Bumpass, Patrick Pinney et Jack Angel : voix additionnelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frère_des_ours</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_des_ours</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bruno Choël : Kenaï
 Boris Rehlinger : Sitka
 Damien Boisseau : Denahi
@@ -638,7 +694,43 @@
 Éric Métayer
 Guillaume Lebon
 Fabien Jacquelin
-Voix québécoises
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frère_des_ours</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_des_ours</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix québécoises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Patrice Dubois : Kenaï
 Renaud Proulx : Koda
 Dominique Ducharme : Koda (chant)
@@ -659,31 +751,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fr%C3%A8re_des_ours</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_des_ours</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frère_des_ours</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_des_ours</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Chansons du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les Grands Esprits ou L'Esprit des ancêtres au Québec - Chœur
 Je m'en vais - Koda et Phil Collins
@@ -695,31 +789,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fr%C3%A8re_des_ours</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_des_ours</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Frère_des_ours</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_des_ours</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sorties Vidéos</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>France : 25 août 2004 (DVD Édition simple)
 France : 25 août 2004 (DVD Édition Prestige)
@@ -727,75 +823,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fr%C3%A8re_des_ours</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_des_ours</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film prend place à l'époque post-ère glaciaire en Amérique du Nord, où les tribus locales d'Inuits croient que toutes les créatures vivantes sont créées par les Esprits (animisme) qui apparaissent sous forme d'aurore polaire.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fr%C3%A8re_des_ours</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_des_ours</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Suite</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un second film, Frère des ours 2, est sortie directement en vidéo en 2006.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_des_ours</t>
+          <t>Frère_des_ours</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -810,12 +844,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Adaptation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frère des ours a été adapté en jeu vidéo sur Windows et Game Boy Advance.
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film prend place à l'époque post-ère glaciaire en Amérique du Nord, où les tribus locales d'Inuits croient que toutes les créatures vivantes sont créées par les Esprits (animisme) qui apparaissent sous forme d'aurore polaire.
 </t>
         </is>
       </c>
@@ -826,7 +862,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fr%C3%A8re_des_ours</t>
+          <t>Frère_des_ours</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -841,13 +877,81 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Suite</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un second film, Frère des ours 2, est sortie directement en vidéo en 2006.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Frère_des_ours</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_des_ours</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frère des ours a été adapté en jeu vidéo sur Windows et Game Boy Advance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Frère_des_ours</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fr%C3%A8re_des_ours</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Box-office</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> États-Unis : 85 336 277 $[1], 14 142 154 entrées[2]
- France : 24 240 164 $[3], 3 503 563 entrées[2]</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis : 85 336 277 $, 14 142 154 entrées
+ France : 24 240 164 $, 3 503 563 entrées</t>
         </is>
       </c>
     </row>
